--- a/plantilla_recetas_productos.xlsx
+++ b/plantilla_recetas_productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desanchez\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63EE5CF2-8D21-465D-9873-B9E4D6F38427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DE4A7-07E4-4933-8AC5-F80DDCAB4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Ecuacion_Volumen</t>
   </si>
   <si>
-    <t>Codigo_Material</t>
-  </si>
-  <si>
     <t>Proveedor</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>RCA-T-008</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +578,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -625,30 +625,30 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>930</v>
@@ -660,33 +660,33 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>930</v>
@@ -698,33 +698,33 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>1090</v>
@@ -736,33 +736,33 @@
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>1090</v>
@@ -774,33 +774,33 @@
         <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>1625</v>
@@ -812,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_recetas_productos.xlsx
+++ b/plantilla_recetas_productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desanchez\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DE4A7-07E4-4933-8AC5-F80DDCAB4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1549CF9-1D49-48BF-BD75-9CF1A4EA4067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Unidad</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Codigo</t>
+  </si>
+  <si>
+    <t>Alarma_Alta</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +238,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +599,14 @@
     <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,19 +632,22 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -659,20 +672,23 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -697,20 +713,23 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -735,20 +754,23 @@
       <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -773,20 +795,23 @@
       <c r="H5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -811,16 +836,19 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/plantilla_recetas_productos.xlsx
+++ b/plantilla_recetas_productos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desanchez\Desktop\Nueva carpeta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830CD62D-1598-4094-8F22-C141743BC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Unidad</t>
   </si>
@@ -167,13 +173,28 @@
   </si>
   <si>
     <t>0.87%</t>
+  </si>
+  <si>
+    <t>Solvente</t>
+  </si>
+  <si>
+    <t>Nefta Pesada Hidrotratada</t>
+  </si>
+  <si>
+    <t>Gasoil Hidrotratado</t>
+  </si>
+  <si>
+    <t>Agua Desmineralizada</t>
+  </si>
+  <si>
+    <t>Reformado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,11 +257,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -282,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +343,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +395,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,31 +620,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -593,32 +666,35 @@
       <c r="F2">
         <v>930</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2">
         <v>729.8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -637,32 +713,35 @@
       <c r="F3">
         <v>930</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3">
         <v>843.9</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0.009636</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>9.6360000000000005E-3</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -681,32 +760,35 @@
       <c r="F4">
         <v>1090</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
         <v>999.3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>30</v>
       </c>
-      <c r="I4">
-        <v>0.009050000000000001</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -725,32 +807,35 @@
       <c r="F5">
         <v>1090</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
         <v>999.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="I5">
-        <v>0.0074</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -769,28 +854,31 @@
       <c r="F6">
         <v>1625</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6">
         <v>805.9</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0.008699999999999999</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>50</v>
       </c>
     </row>

--- a/plantilla_recetas_productos.xlsx
+++ b/plantilla_recetas_productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desanchez\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830CD62D-1598-4094-8F22-C141743BC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5899175-921D-43EF-A759-F182BCE0CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>Solvente</t>
   </si>
   <si>
-    <t>Nefta Pesada Hidrotratada</t>
-  </si>
-  <si>
     <t>Gasoil Hidrotratado</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Reformado</t>
+  </si>
+  <si>
+    <t>Nafta Pesada Hidrotratada</t>
   </si>
 </sst>
 </file>
@@ -592,12 +592,15 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
         <v>930</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>729.8</v>
@@ -714,7 +717,7 @@
         <v>930</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <v>843.9</v>
@@ -761,7 +764,7 @@
         <v>1090</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>999.3</v>
@@ -808,7 +811,7 @@
         <v>1090</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>999.3</v>
@@ -855,7 +858,7 @@
         <v>1625</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>805.9</v>
